--- a/lib/classes/StandardFeatures.xlsx
+++ b/lib/classes/StandardFeatures.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Cleric</t>
   </si>
   <si>
+    <t>Monk</t>
+  </si>
+  <si>
     <t>Rogue</t>
   </si>
   <si>
@@ -25,16 +28,22 @@
     <t>Light Armor=Medium Armor=Shield</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>Light Armor</t>
   </si>
   <si>
     <t>Simple Weapons</t>
   </si>
   <si>
+    <t>Simple Weapons=Short-sword</t>
+  </si>
+  <si>
     <t>Simple Weapons=Crossbow, Hand=Long-sword=Rapier=Short-sword</t>
   </si>
   <si>
-    <t>None</t>
+    <t>?Artisan’s tools=?Musical Instruments</t>
   </si>
   <si>
     <t>Thieves’ Tools</t>
@@ -43,6 +52,9 @@
     <t>Wisdom=Charisma</t>
   </si>
   <si>
+    <t>Strength=Dexterity</t>
+  </si>
+  <si>
     <t>Dexterity=Intelligence</t>
   </si>
   <si>
@@ -55,10 +67,16 @@
     <t>10/Divine Intervention</t>
   </si>
   <si>
+    <t>1/Unarmored Defense=2/Unarmored Movement=3/Deflect Missiles=4/Slow Fall=5/Extra Attack=5/Stunning Strike=6/Ki-Empowered Strikes=7/Evasion=7/Stillness of Mind=10/Purity of Body (Immune to Disease and Poison)=13/Tongue of the Sun and Moon=14/Diamond Soul=15/Timeless Body=18/Empty Body=20/Perfect Self</t>
+  </si>
+  <si>
     <t>1/Thieves' Cant=1/Expertise=2/Cunning Action=5/Uncanny Dodge=7/Evasion=11/Reliable Talent=14/Blindsense=15/Slippery Mind=18/Elusive=20/Stroke of Luck</t>
   </si>
   <si>
     <t>2/Channel Divinity=5/Destroy Undead</t>
+  </si>
+  <si>
+    <t>1/Martial Arts=2/Ki</t>
   </si>
   <si>
     <t>1/Sneak Attack</t>
@@ -325,13 +343,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -341,61 +365,85 @@
       <c r="B3" s="1">
         <v>8.0</v>
       </c>
+      <c r="C3" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
